--- a/xlsx/新墨西哥_intext.xlsx
+++ b/xlsx/新墨西哥_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>新墨西哥</t>
   </si>
@@ -47,9 +47,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_New_Mexico</t>
@@ -161,19 +158,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%B0%A4%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>湯姆·尤德爾</t>
+    <t>汤姆·尤德尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E6%B5%B7%E5%9B%A0%E9%87%8C%E5%B8%8C</t>
   </si>
   <si>
-    <t>馬丁·海因里希</t>
+    <t>马丁·海因里希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E9%9C%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>納瓦霍語</t>
+    <t>纳瓦霍语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%BE%92</t>
@@ -293,19 +290,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新墨西哥大學</t>
+    <t>新墨西哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新墨西哥州立大學</t>
+    <t>新墨西哥州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastern_New_Mexico_University</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新墨西哥礦業及科技學院</t>
+    <t>新墨西哥矿业及科技学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/College_of_Santa_Fe</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%BF%B0%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖約翰學院</t>
+    <t>圣约翰学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/San_Juan_College</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87%E9%9A%8A</t>
   </si>
   <si>
-    <t>洛杉磯道奇隊</t>
+    <t>洛杉矶道奇队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -695,19 +692,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -761,25 +758,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -1335,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
@@ -1361,10 +1358,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1390,10 +1387,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1419,10 +1416,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1448,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -1477,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1506,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1535,10 +1532,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1564,10 +1561,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1593,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1622,10 +1619,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1651,10 +1648,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1680,10 +1677,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1709,10 +1706,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1738,10 +1735,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>31</v>
@@ -1767,10 +1764,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1796,10 +1793,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1825,10 +1822,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1854,10 +1851,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1883,10 +1880,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1912,10 +1909,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>22</v>
@@ -1941,10 +1938,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1970,10 +1967,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1999,10 +1996,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2028,10 +2025,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2057,10 +2054,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2086,10 +2083,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2115,10 +2112,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2144,10 +2141,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -2173,10 +2170,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2202,10 +2199,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2231,10 +2228,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
         <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2260,10 +2257,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2289,10 +2286,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2318,10 +2315,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2347,10 +2344,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2376,10 +2373,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -2405,10 +2402,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2434,10 +2431,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2463,10 +2460,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2492,10 +2489,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2521,10 +2518,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2550,10 +2547,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2579,10 +2576,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2608,10 +2605,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2637,10 +2634,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2666,10 +2663,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2695,10 +2692,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2724,10 +2721,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2753,10 +2750,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2782,10 +2779,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2811,10 +2808,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2840,10 +2837,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2869,10 +2866,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2898,10 +2895,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2927,10 +2924,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2956,10 +2953,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2985,10 +2982,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>38</v>
@@ -3014,10 +3011,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3043,10 +3040,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3072,10 +3069,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3101,10 +3098,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3130,10 +3127,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3159,10 +3156,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3188,10 +3185,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3217,10 +3214,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3246,10 +3243,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3275,10 +3272,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3304,10 +3301,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3333,10 +3330,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3362,10 +3359,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3391,10 +3388,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3420,10 +3417,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3449,10 +3446,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3478,10 +3475,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3507,10 +3504,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3536,10 +3533,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3565,10 +3562,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3594,10 +3591,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3623,10 +3620,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3652,10 +3649,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3681,10 +3678,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3710,10 +3707,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3739,10 +3736,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3768,10 +3765,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3797,10 +3794,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3826,10 +3823,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3855,10 +3852,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3884,10 +3881,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3913,10 +3910,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3942,10 +3939,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3971,10 +3968,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4000,10 +3997,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4029,10 +4026,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4058,10 +4055,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4087,10 +4084,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4116,10 +4113,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4145,10 +4142,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4174,10 +4171,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4203,10 +4200,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4232,10 +4229,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4261,10 +4258,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4290,10 +4287,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4319,10 +4316,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4348,10 +4345,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4377,10 +4374,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4406,10 +4403,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4435,10 +4432,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4464,10 +4461,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4493,10 +4490,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4522,10 +4519,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4551,10 +4548,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4580,10 +4577,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4609,10 +4606,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4638,10 +4635,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4667,10 +4664,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4696,10 +4693,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4725,10 +4722,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4754,10 +4751,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4783,10 +4780,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4812,10 +4809,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4841,10 +4838,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4870,10 +4867,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4899,10 +4896,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4928,10 +4925,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4957,10 +4954,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4986,10 +4983,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5015,10 +5012,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5044,10 +5041,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5073,10 +5070,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5102,10 +5099,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5131,10 +5128,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5160,10 +5157,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5189,10 +5186,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5218,10 +5215,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -5247,10 +5244,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
